--- a/src/output/data.xlsx
+++ b/src/output/data.xlsx
@@ -493,7 +493,7 @@
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
-      <formula1>"open,high,close"</formula1>
+      <formula1>"Nam,Nu,Khac,Nam,Nu,Khac,Nam,Nu,Khac,Nam,Nu,Khac"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
       <formula1>3</formula1>
